--- a/insr_list.xlsx
+++ b/insr_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="391">
   <si>
     <t>Код МО</t>
   </si>
@@ -1183,9 +1183,6 @@
   </si>
   <si>
     <t>РЖД ст. Рубцовск</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>объеденена</t>
@@ -1369,21 +1366,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1402,6 +1384,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1707,7 +1704,7 @@
   <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B115" sqref="B115"/>
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1716,24 +1713,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -1750,7 +1747,7 @@
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="9">
         <v>119</v>
       </c>
     </row>
@@ -1761,7 +1758,7 @@
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="9">
         <v>132</v>
       </c>
     </row>
@@ -1772,7 +1769,7 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="9">
         <v>133</v>
       </c>
     </row>
@@ -1783,7 +1780,7 @@
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="9">
         <v>106</v>
       </c>
     </row>
@@ -1794,7 +1791,7 @@
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="9">
         <v>134</v>
       </c>
     </row>
@@ -1805,7 +1802,7 @@
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="9">
         <v>165</v>
       </c>
     </row>
@@ -1816,7 +1813,7 @@
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="9">
         <v>139</v>
       </c>
     </row>
@@ -1827,7 +1824,7 @@
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="9">
         <v>140</v>
       </c>
     </row>
@@ -1838,7 +1835,7 @@
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="9">
         <v>161</v>
       </c>
     </row>
@@ -1849,7 +1846,7 @@
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="9">
         <v>157</v>
       </c>
     </row>
@@ -1860,7 +1857,7 @@
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="9">
         <v>141</v>
       </c>
     </row>
@@ -1871,7 +1868,7 @@
       <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="9">
         <v>142</v>
       </c>
     </row>
@@ -1882,7 +1879,7 @@
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="9">
         <v>146</v>
       </c>
     </row>
@@ -1893,7 +1890,7 @@
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="9">
         <v>145</v>
       </c>
     </row>
@@ -1904,7 +1901,7 @@
       <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="9">
         <v>95</v>
       </c>
     </row>
@@ -1915,7 +1912,7 @@
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="9">
         <v>147</v>
       </c>
     </row>
@@ -1926,7 +1923,7 @@
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="9">
         <v>148</v>
       </c>
     </row>
@@ -1937,7 +1934,7 @@
       <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="9">
         <v>105</v>
       </c>
     </row>
@@ -1948,7 +1945,7 @@
       <c r="B24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="9">
         <v>149</v>
       </c>
     </row>
@@ -1959,7 +1956,7 @@
       <c r="B25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="9">
         <v>150</v>
       </c>
     </row>
@@ -1970,7 +1967,7 @@
       <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="9">
         <v>151</v>
       </c>
     </row>
@@ -1981,7 +1978,7 @@
       <c r="B27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="9">
         <v>152</v>
       </c>
     </row>
@@ -1992,7 +1989,7 @@
       <c r="B28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="9">
         <v>162</v>
       </c>
     </row>
@@ -2003,7 +2000,7 @@
       <c r="B29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="9">
         <v>160</v>
       </c>
     </row>
@@ -2014,7 +2011,7 @@
       <c r="B30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="9">
         <v>163</v>
       </c>
     </row>
@@ -2025,7 +2022,7 @@
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="9">
         <v>182</v>
       </c>
     </row>
@@ -2036,7 +2033,7 @@
       <c r="B32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="9">
         <v>166</v>
       </c>
     </row>
@@ -2047,7 +2044,7 @@
       <c r="B33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="9">
         <v>381</v>
       </c>
     </row>
@@ -2058,7 +2055,7 @@
       <c r="B34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="9">
         <v>131</v>
       </c>
     </row>
@@ -2069,7 +2066,7 @@
       <c r="B35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="9">
         <v>180</v>
       </c>
     </row>
@@ -2080,7 +2077,7 @@
       <c r="B36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="9">
         <v>101</v>
       </c>
     </row>
@@ -2091,7 +2088,7 @@
       <c r="B37" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="9">
         <v>192</v>
       </c>
     </row>
@@ -2102,7 +2099,7 @@
       <c r="B38" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="9">
         <v>125</v>
       </c>
     </row>
@@ -2113,7 +2110,7 @@
       <c r="B39" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="9">
         <v>217</v>
       </c>
     </row>
@@ -2124,7 +2121,7 @@
       <c r="B40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="9">
         <v>128</v>
       </c>
     </row>
@@ -2135,7 +2132,7 @@
       <c r="B41" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="9">
         <v>169</v>
       </c>
     </row>
@@ -2146,7 +2143,7 @@
       <c r="B42" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="9">
         <v>167</v>
       </c>
     </row>
@@ -2157,7 +2154,7 @@
       <c r="B43" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="9">
         <v>168</v>
       </c>
     </row>
@@ -2168,7 +2165,7 @@
       <c r="B44" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="9">
         <v>200</v>
       </c>
     </row>
@@ -2179,7 +2176,7 @@
       <c r="B45" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="9">
         <v>170</v>
       </c>
     </row>
@@ -2190,7 +2187,7 @@
       <c r="B46" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="9">
         <v>171</v>
       </c>
     </row>
@@ -2201,7 +2198,7 @@
       <c r="B47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="9">
         <v>172</v>
       </c>
     </row>
@@ -2212,7 +2209,7 @@
       <c r="B48" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="9">
         <v>173</v>
       </c>
     </row>
@@ -2223,7 +2220,7 @@
       <c r="B49" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="9">
         <v>202</v>
       </c>
     </row>
@@ -2234,7 +2231,7 @@
       <c r="B50" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="9">
         <v>205</v>
       </c>
     </row>
@@ -2245,7 +2242,7 @@
       <c r="B51" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="9">
         <v>206</v>
       </c>
     </row>
@@ -2256,7 +2253,7 @@
       <c r="B52" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="9">
         <v>110</v>
       </c>
     </row>
@@ -2267,7 +2264,7 @@
       <c r="B53" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C53" s="9">
         <v>208</v>
       </c>
     </row>
@@ -2278,7 +2275,7 @@
       <c r="B54" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="14">
+      <c r="C54" s="9">
         <v>98</v>
       </c>
     </row>
@@ -2289,7 +2286,7 @@
       <c r="B55" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55" s="9">
         <v>210</v>
       </c>
     </row>
@@ -2300,7 +2297,7 @@
       <c r="B56" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="14">
+      <c r="C56" s="9">
         <v>174</v>
       </c>
     </row>
@@ -2311,7 +2308,7 @@
       <c r="B57" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="14">
+      <c r="C57" s="9">
         <v>175</v>
       </c>
     </row>
@@ -2322,7 +2319,7 @@
       <c r="B58" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="14">
+      <c r="C58" s="9">
         <v>186</v>
       </c>
     </row>
@@ -2333,7 +2330,7 @@
       <c r="B59" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="14">
+      <c r="C59" s="9">
         <v>177</v>
       </c>
     </row>
@@ -2344,7 +2341,7 @@
       <c r="B60" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="14">
+      <c r="C60" s="9">
         <v>176</v>
       </c>
     </row>
@@ -2355,7 +2352,7 @@
       <c r="B61" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="14">
+      <c r="C61" s="9">
         <v>178</v>
       </c>
     </row>
@@ -2366,7 +2363,7 @@
       <c r="B62" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="14">
+      <c r="C62" s="9">
         <v>185</v>
       </c>
     </row>
@@ -2377,7 +2374,7 @@
       <c r="B63" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="14">
+      <c r="C63" s="9">
         <v>181</v>
       </c>
     </row>
@@ -2388,7 +2385,7 @@
       <c r="B64" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="14">
+      <c r="C64" s="9">
         <v>124</v>
       </c>
     </row>
@@ -2399,7 +2396,7 @@
       <c r="B65" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="14">
+      <c r="C65" s="9">
         <v>127</v>
       </c>
     </row>
@@ -2410,20 +2407,20 @@
       <c r="B66" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="14">
+      <c r="C66" s="9">
         <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="10">
+      <c r="A67" s="5">
         <v>220077</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="14"/>
+      <c r="C67" s="9"/>
       <c r="D67" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2433,32 +2430,32 @@
       <c r="B68" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="14">
+      <c r="C68" s="9">
         <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="12">
+      <c r="A69" s="7">
         <v>220079</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C69" s="14"/>
+      <c r="C69" s="9"/>
       <c r="D69" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="12">
+      <c r="A70" s="7">
         <v>220080</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="14"/>
+      <c r="C70" s="9"/>
       <c r="D70" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2468,7 +2465,7 @@
       <c r="B71" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C71" s="14">
+      <c r="C71" s="9">
         <v>234</v>
       </c>
     </row>
@@ -2479,7 +2476,7 @@
       <c r="B72" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C72" s="14">
+      <c r="C72" s="9">
         <v>238</v>
       </c>
     </row>
@@ -2490,7 +2487,7 @@
       <c r="B73" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C73" s="14">
+      <c r="C73" s="9">
         <v>236</v>
       </c>
     </row>
@@ -2501,7 +2498,7 @@
       <c r="B74" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C74" s="14">
+      <c r="C74" s="9">
         <v>237</v>
       </c>
     </row>
@@ -2512,7 +2509,7 @@
       <c r="B75" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C75" s="14">
+      <c r="C75" s="9">
         <v>226</v>
       </c>
     </row>
@@ -2523,7 +2520,7 @@
       <c r="B76" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="14">
+      <c r="C76" s="9">
         <v>239</v>
       </c>
     </row>
@@ -2534,7 +2531,7 @@
       <c r="B77" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C77" s="14">
+      <c r="C77" s="9">
         <v>222</v>
       </c>
     </row>
@@ -2545,7 +2542,7 @@
       <c r="B78" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C78" s="14">
+      <c r="C78" s="9">
         <v>215</v>
       </c>
     </row>
@@ -2556,7 +2553,7 @@
       <c r="B79" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C79" s="14">
+      <c r="C79" s="9">
         <v>227</v>
       </c>
     </row>
@@ -2567,7 +2564,7 @@
       <c r="B80" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C80" s="14">
+      <c r="C80" s="9">
         <v>224</v>
       </c>
     </row>
@@ -2578,7 +2575,7 @@
       <c r="B81" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C81" s="14">
+      <c r="C81" s="9">
         <v>223</v>
       </c>
     </row>
@@ -2589,7 +2586,7 @@
       <c r="B82" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C82" s="14">
+      <c r="C82" s="9">
         <v>220</v>
       </c>
     </row>
@@ -2600,7 +2597,7 @@
       <c r="B83" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C83" s="14">
+      <c r="C83" s="9">
         <v>254</v>
       </c>
     </row>
@@ -2611,7 +2608,7 @@
       <c r="B84" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C84" s="14">
+      <c r="C84" s="9">
         <v>52</v>
       </c>
     </row>
@@ -2622,7 +2619,7 @@
       <c r="B85" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C85" s="14">
+      <c r="C85" s="9">
         <v>246</v>
       </c>
     </row>
@@ -2633,7 +2630,7 @@
       <c r="B86" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C86" s="14">
+      <c r="C86" s="9">
         <v>255</v>
       </c>
     </row>
@@ -2644,7 +2641,7 @@
       <c r="B87" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C87" s="14">
+      <c r="C87" s="9">
         <v>300</v>
       </c>
     </row>
@@ -2655,20 +2652,20 @@
       <c r="B88" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C88" s="14">
+      <c r="C88" s="9">
         <v>299</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="12">
+      <c r="A89" s="7">
         <v>220111</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C89" s="14"/>
+      <c r="C89" s="9"/>
       <c r="D89" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2678,7 +2675,7 @@
       <c r="B90" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C90" s="14">
+      <c r="C90" s="9">
         <v>268</v>
       </c>
     </row>
@@ -2686,10 +2683,10 @@
       <c r="A91" s="1">
         <v>220104</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C91" s="14">
+      <c r="C91" s="9">
         <v>301</v>
       </c>
     </row>
@@ -2700,7 +2697,7 @@
       <c r="B92" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C92" s="14">
+      <c r="C92" s="9">
         <v>129</v>
       </c>
     </row>
@@ -2711,7 +2708,7 @@
       <c r="B93" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="14">
+      <c r="C93" s="9">
         <v>108</v>
       </c>
     </row>
@@ -2722,7 +2719,7 @@
       <c r="B94" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C94" s="14">
+      <c r="C94" s="9">
         <v>135</v>
       </c>
     </row>
@@ -2733,7 +2730,7 @@
       <c r="B95" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C95" s="14">
+      <c r="C95" s="9">
         <v>156</v>
       </c>
     </row>
@@ -2744,7 +2741,7 @@
       <c r="B96" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C96" s="14">
+      <c r="C96" s="9">
         <v>138</v>
       </c>
     </row>
@@ -2755,7 +2752,7 @@
       <c r="B97" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C97" s="14">
+      <c r="C97" s="9">
         <v>261</v>
       </c>
     </row>
@@ -2766,7 +2763,7 @@
       <c r="B98" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C98" s="14">
+      <c r="C98" s="9">
         <v>123</v>
       </c>
     </row>
@@ -2777,7 +2774,7 @@
       <c r="B99" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C99" s="14">
+      <c r="C99" s="9">
         <v>117</v>
       </c>
     </row>
@@ -2788,7 +2785,7 @@
       <c r="B100" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C100" s="14">
+      <c r="C100" s="9">
         <v>288</v>
       </c>
     </row>
@@ -2799,7 +2796,7 @@
       <c r="B101" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C101" s="14">
+      <c r="C101" s="9">
         <v>289</v>
       </c>
     </row>
@@ -2810,7 +2807,7 @@
       <c r="B102" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C102" s="14">
+      <c r="C102" s="9">
         <v>121</v>
       </c>
     </row>
@@ -2821,7 +2818,7 @@
       <c r="B103" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C103" s="14">
+      <c r="C103" s="9">
         <v>330</v>
       </c>
     </row>
@@ -2832,7 +2829,7 @@
       <c r="B104" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C104" s="14">
+      <c r="C104" s="9">
         <v>159</v>
       </c>
     </row>
@@ -2843,7 +2840,7 @@
       <c r="B105" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C105" s="14">
+      <c r="C105" s="9">
         <v>199</v>
       </c>
     </row>
@@ -2854,7 +2851,7 @@
       <c r="B106" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C106" s="14">
+      <c r="C106" s="9">
         <v>198</v>
       </c>
     </row>
@@ -2865,7 +2862,7 @@
       <c r="B107" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C107" s="14">
+      <c r="C107" s="9">
         <v>240</v>
       </c>
     </row>
@@ -2876,7 +2873,7 @@
       <c r="B108" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C108" s="14">
+      <c r="C108" s="9">
         <v>221</v>
       </c>
     </row>
@@ -2887,49 +2884,49 @@
       <c r="B109" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C109" s="14">
+      <c r="C109" s="9">
         <v>250</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="14">
+      <c r="A110" s="9">
         <v>220152</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C110" s="14">
+      <c r="C110" s="9">
         <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="14">
+      <c r="A111" s="9">
         <v>220092</v>
       </c>
-      <c r="B111" s="15" t="s">
+      <c r="B111" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="C111" s="14">
+      <c r="C111" s="9">
         <v>229</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="B112" s="15" t="s">
+      <c r="A112" s="9">
+        <v>220151</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C112" s="14">
+      <c r="C112" s="9">
         <v>371</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="B113" s="18"/>
-      <c r="C113" s="17">
+      <c r="A113" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B113" s="13"/>
+      <c r="C113" s="12">
         <v>107</v>
       </c>
     </row>
@@ -2957,1579 +2954,1853 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="8"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="18"/>
+      <c r="C7" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="18"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="18"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="18"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="18"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="18"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="18"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="7" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="18"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="18"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="18"/>
+      <c r="C27" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="18"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="7" t="s">
+      <c r="B28" s="18"/>
+      <c r="C28" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="18"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="18"/>
+      <c r="C29" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="18"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="7" t="s">
+      <c r="B30" s="18"/>
+      <c r="C30" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="18"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="8"/>
+      <c r="D31" s="18"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="7" t="s">
+      <c r="B32" s="18"/>
+      <c r="C32" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="D32" s="8"/>
+      <c r="D32" s="18"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="8"/>
+      <c r="D33" s="18"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="7" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="8"/>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="7" t="s">
+      <c r="B35" s="18"/>
+      <c r="C35" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D35" s="8"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="7" t="s">
+      <c r="B36" s="18"/>
+      <c r="C36" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="D36" s="8"/>
+      <c r="D36" s="18"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="D37" s="8"/>
+      <c r="D37" s="18"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="7" t="s">
+      <c r="B38" s="18"/>
+      <c r="C38" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="8"/>
+      <c r="D38" s="18"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="7" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="8"/>
+      <c r="D39" s="18"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="7" t="s">
+      <c r="B40" s="18"/>
+      <c r="C40" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="D40" s="8"/>
+      <c r="D40" s="18"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="7" t="s">
+      <c r="B41" s="18"/>
+      <c r="C41" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="18"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="7" t="s">
+      <c r="B42" s="18"/>
+      <c r="C42" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D42" s="8"/>
+      <c r="D42" s="18"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="7" t="s">
+      <c r="B43" s="18"/>
+      <c r="C43" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D43" s="8"/>
+      <c r="D43" s="18"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="7" t="s">
+      <c r="B44" s="18"/>
+      <c r="C44" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D44" s="8"/>
+      <c r="D44" s="18"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="7" t="s">
+      <c r="B45" s="18"/>
+      <c r="C45" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D45" s="8"/>
+      <c r="D45" s="18"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="7" t="s">
+      <c r="B46" s="18"/>
+      <c r="C46" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D46" s="8"/>
+      <c r="D46" s="18"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="7" t="s">
+      <c r="B47" s="18"/>
+      <c r="C47" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="8"/>
+      <c r="D47" s="18"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="7" t="s">
+      <c r="B48" s="18"/>
+      <c r="C48" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D48" s="8"/>
+      <c r="D48" s="18"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="7" t="s">
+      <c r="B49" s="18"/>
+      <c r="C49" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D49" s="8"/>
+      <c r="D49" s="18"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="7" t="s">
+      <c r="B50" s="18"/>
+      <c r="C50" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D50" s="8"/>
+      <c r="D50" s="18"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="7" t="s">
+      <c r="B51" s="18"/>
+      <c r="C51" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="D51" s="8"/>
+      <c r="D51" s="18"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="7" t="s">
+      <c r="B52" s="18"/>
+      <c r="C52" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="8"/>
+      <c r="D52" s="18"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="7" t="s">
+      <c r="B53" s="18"/>
+      <c r="C53" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D53" s="8"/>
+      <c r="D53" s="18"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="7" t="s">
+      <c r="B54" s="18"/>
+      <c r="C54" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D54" s="8"/>
+      <c r="D54" s="18"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="7" t="s">
+      <c r="B55" s="18"/>
+      <c r="C55" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="8"/>
+      <c r="D55" s="18"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="7" t="s">
+      <c r="B56" s="18"/>
+      <c r="C56" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="8"/>
+      <c r="D56" s="18"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="7" t="s">
+      <c r="B57" s="18"/>
+      <c r="C57" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="8"/>
+      <c r="D57" s="18"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="7" t="s">
+      <c r="B58" s="18"/>
+      <c r="C58" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D58" s="8"/>
+      <c r="D58" s="18"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="7" t="s">
+      <c r="B59" s="18"/>
+      <c r="C59" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D59" s="8"/>
+      <c r="D59" s="18"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="7" t="s">
+      <c r="B60" s="18"/>
+      <c r="C60" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="D60" s="8"/>
+      <c r="D60" s="18"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="7" t="s">
+      <c r="B61" s="18"/>
+      <c r="C61" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="D61" s="8"/>
+      <c r="D61" s="18"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="7" t="s">
+      <c r="B62" s="18"/>
+      <c r="C62" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="D62" s="8"/>
+      <c r="D62" s="18"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="7" t="s">
+      <c r="B63" s="18"/>
+      <c r="C63" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="8"/>
+      <c r="D63" s="18"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="7" t="s">
+      <c r="B64" s="18"/>
+      <c r="C64" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="D64" s="8"/>
+      <c r="D64" s="18"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="7" t="s">
+      <c r="B65" s="18"/>
+      <c r="C65" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D65" s="8"/>
+      <c r="D65" s="18"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="7" t="s">
+      <c r="B66" s="18"/>
+      <c r="C66" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D66" s="8"/>
+      <c r="D66" s="18"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="7" t="s">
+      <c r="B67" s="18"/>
+      <c r="C67" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D67" s="8"/>
+      <c r="D67" s="18"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="7" t="s">
+      <c r="B68" s="18"/>
+      <c r="C68" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="D68" s="8"/>
+      <c r="D68" s="18"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="7" t="s">
+      <c r="B69" s="18"/>
+      <c r="C69" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="D69" s="8"/>
+      <c r="D69" s="18"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="7" t="s">
+      <c r="B70" s="18"/>
+      <c r="C70" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="D70" s="8"/>
+      <c r="D70" s="18"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="7" t="s">
+      <c r="B71" s="18"/>
+      <c r="C71" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D71" s="8"/>
+      <c r="D71" s="18"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="7" t="s">
+      <c r="B72" s="18"/>
+      <c r="C72" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="D72" s="8"/>
+      <c r="D72" s="18"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="7" t="s">
+      <c r="B73" s="18"/>
+      <c r="C73" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="D73" s="8"/>
+      <c r="D73" s="18"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="7" t="s">
+      <c r="B74" s="18"/>
+      <c r="C74" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D74" s="8"/>
+      <c r="D74" s="18"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="7" t="s">
+      <c r="B75" s="18"/>
+      <c r="C75" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="D75" s="8"/>
+      <c r="D75" s="18"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="7" t="s">
+      <c r="B76" s="18"/>
+      <c r="C76" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D76" s="8"/>
+      <c r="D76" s="18"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="7" t="s">
+      <c r="B77" s="18"/>
+      <c r="C77" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="D77" s="8"/>
+      <c r="D77" s="18"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="7" t="s">
+      <c r="B78" s="18"/>
+      <c r="C78" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="D78" s="8"/>
+      <c r="D78" s="18"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="7" t="s">
+      <c r="B79" s="18"/>
+      <c r="C79" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D79" s="8"/>
+      <c r="D79" s="18"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="7" t="s">
+      <c r="B80" s="18"/>
+      <c r="C80" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D80" s="8"/>
+      <c r="D80" s="18"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="7" t="s">
+      <c r="B81" s="18"/>
+      <c r="C81" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="D81" s="8"/>
+      <c r="D81" s="18"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="7" t="s">
+      <c r="B82" s="18"/>
+      <c r="C82" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="D82" s="8"/>
+      <c r="D82" s="18"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="7" t="s">
+      <c r="B83" s="18"/>
+      <c r="C83" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="D83" s="8"/>
+      <c r="D83" s="18"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="7" t="s">
+      <c r="B84" s="18"/>
+      <c r="C84" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="D84" s="8"/>
+      <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="7" t="s">
+      <c r="B85" s="18"/>
+      <c r="C85" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="D85" s="8"/>
+      <c r="D85" s="18"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="7" t="s">
+      <c r="B86" s="18"/>
+      <c r="C86" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="D86" s="8"/>
+      <c r="D86" s="18"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="7" t="s">
+      <c r="B87" s="18"/>
+      <c r="C87" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="D87" s="8"/>
+      <c r="D87" s="18"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="7" t="s">
+      <c r="B88" s="18"/>
+      <c r="C88" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="D88" s="8"/>
+      <c r="D88" s="18"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="7" t="s">
+      <c r="B89" s="18"/>
+      <c r="C89" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="D89" s="8"/>
+      <c r="D89" s="18"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="7" t="s">
+      <c r="B90" s="18"/>
+      <c r="C90" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="D90" s="8"/>
+      <c r="D90" s="18"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="7" t="s">
+      <c r="B91" s="18"/>
+      <c r="C91" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="D91" s="8"/>
+      <c r="D91" s="18"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="7" t="s">
+      <c r="B92" s="18"/>
+      <c r="C92" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="D92" s="8"/>
+      <c r="D92" s="18"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="B93" s="8"/>
-      <c r="C93" s="7" t="s">
+      <c r="B93" s="18"/>
+      <c r="C93" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="D93" s="8"/>
+      <c r="D93" s="18"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="B94" s="8"/>
-      <c r="C94" s="7" t="s">
+      <c r="B94" s="18"/>
+      <c r="C94" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="D94" s="8"/>
+      <c r="D94" s="18"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="B95" s="8"/>
-      <c r="C95" s="7" t="s">
+      <c r="B95" s="18"/>
+      <c r="C95" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="D95" s="8"/>
+      <c r="D95" s="18"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="B96" s="8"/>
-      <c r="C96" s="7" t="s">
+      <c r="B96" s="18"/>
+      <c r="C96" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="D96" s="8"/>
+      <c r="D96" s="18"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="7" t="s">
+      <c r="B97" s="18"/>
+      <c r="C97" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="D97" s="8"/>
+      <c r="D97" s="18"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="7" t="s">
+      <c r="B98" s="18"/>
+      <c r="C98" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="D98" s="8"/>
+      <c r="D98" s="18"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="7" t="s">
+      <c r="B99" s="18"/>
+      <c r="C99" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D99" s="8"/>
+      <c r="D99" s="18"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="B100" s="8"/>
-      <c r="C100" s="7" t="s">
+      <c r="B100" s="18"/>
+      <c r="C100" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="D100" s="8"/>
+      <c r="D100" s="18"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="7" t="s">
+      <c r="B101" s="18"/>
+      <c r="C101" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="D101" s="8"/>
+      <c r="D101" s="18"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="B102" s="8"/>
-      <c r="C102" s="7" t="s">
+      <c r="B102" s="18"/>
+      <c r="C102" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="D102" s="8"/>
+      <c r="D102" s="18"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="B103" s="8"/>
-      <c r="C103" s="7" t="s">
+      <c r="B103" s="18"/>
+      <c r="C103" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="D103" s="8"/>
+      <c r="D103" s="18"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="B104" s="8"/>
-      <c r="C104" s="7" t="s">
+      <c r="B104" s="18"/>
+      <c r="C104" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="D104" s="8"/>
+      <c r="D104" s="18"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="B105" s="8"/>
-      <c r="C105" s="7" t="s">
+      <c r="B105" s="18"/>
+      <c r="C105" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="D105" s="8"/>
+      <c r="D105" s="18"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="B106" s="8"/>
-      <c r="C106" s="7" t="s">
+      <c r="B106" s="18"/>
+      <c r="C106" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="D106" s="8"/>
+      <c r="D106" s="18"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="B107" s="8"/>
-      <c r="C107" s="7" t="s">
+      <c r="B107" s="18"/>
+      <c r="C107" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="D107" s="8"/>
+      <c r="D107" s="18"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="B108" s="8"/>
-      <c r="C108" s="7" t="s">
+      <c r="B108" s="18"/>
+      <c r="C108" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="D108" s="8"/>
+      <c r="D108" s="18"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="B109" s="8"/>
-      <c r="C109" s="7" t="s">
+      <c r="B109" s="18"/>
+      <c r="C109" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="D109" s="8"/>
+      <c r="D109" s="18"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="B110" s="8"/>
-      <c r="C110" s="7" t="s">
+      <c r="B110" s="18"/>
+      <c r="C110" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="D110" s="8"/>
+      <c r="D110" s="18"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="B111" s="8"/>
-      <c r="C111" s="7" t="s">
+      <c r="B111" s="18"/>
+      <c r="C111" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="D111" s="8"/>
+      <c r="D111" s="18"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="B112" s="8"/>
-      <c r="C112" s="7" t="s">
+      <c r="B112" s="18"/>
+      <c r="C112" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D112" s="8"/>
+      <c r="D112" s="18"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="B113" s="8"/>
-      <c r="C113" s="7" t="s">
+      <c r="B113" s="18"/>
+      <c r="C113" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="D113" s="8"/>
+      <c r="D113" s="18"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="B114" s="8"/>
-      <c r="C114" s="7" t="s">
+      <c r="B114" s="18"/>
+      <c r="C114" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D114" s="8"/>
+      <c r="D114" s="18"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="B115" s="8"/>
-      <c r="C115" s="7" t="s">
+      <c r="B115" s="18"/>
+      <c r="C115" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="D115" s="8"/>
+      <c r="D115" s="18"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="B116" s="8"/>
-      <c r="C116" s="7" t="s">
+      <c r="B116" s="18"/>
+      <c r="C116" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="D116" s="8"/>
+      <c r="D116" s="18"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="B117" s="8"/>
-      <c r="C117" s="7" t="s">
+      <c r="B117" s="18"/>
+      <c r="C117" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="D117" s="8"/>
+      <c r="D117" s="18"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="B118" s="8"/>
-      <c r="C118" s="7" t="s">
+      <c r="B118" s="18"/>
+      <c r="C118" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="D118" s="8"/>
+      <c r="D118" s="18"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="7" t="s">
+      <c r="A119" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="B119" s="8"/>
-      <c r="C119" s="7" t="s">
+      <c r="B119" s="18"/>
+      <c r="C119" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="D119" s="8"/>
+      <c r="D119" s="18"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="B120" s="8"/>
-      <c r="C120" s="7" t="s">
+      <c r="B120" s="18"/>
+      <c r="C120" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="D120" s="8"/>
+      <c r="D120" s="18"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="B121" s="8"/>
-      <c r="C121" s="7" t="s">
+      <c r="B121" s="18"/>
+      <c r="C121" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="D121" s="8"/>
+      <c r="D121" s="18"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="B122" s="8"/>
-      <c r="C122" s="7" t="s">
+      <c r="B122" s="18"/>
+      <c r="C122" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="D122" s="8"/>
+      <c r="D122" s="18"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="B123" s="8"/>
-      <c r="C123" s="7" t="s">
+      <c r="B123" s="18"/>
+      <c r="C123" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="D123" s="8"/>
+      <c r="D123" s="18"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="7" t="s">
+      <c r="A124" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="B124" s="8"/>
-      <c r="C124" s="7" t="s">
+      <c r="B124" s="18"/>
+      <c r="C124" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="D124" s="8"/>
+      <c r="D124" s="18"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="7" t="s">
+      <c r="A125" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="B125" s="8"/>
-      <c r="C125" s="7" t="s">
+      <c r="B125" s="18"/>
+      <c r="C125" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="D125" s="8"/>
+      <c r="D125" s="18"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="7" t="s">
+      <c r="A126" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="B126" s="8"/>
-      <c r="C126" s="7" t="s">
+      <c r="B126" s="18"/>
+      <c r="C126" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="D126" s="8"/>
+      <c r="D126" s="18"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="7" t="s">
+      <c r="A127" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B127" s="8"/>
-      <c r="C127" s="7" t="s">
+      <c r="B127" s="18"/>
+      <c r="C127" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="D127" s="8"/>
+      <c r="D127" s="18"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="7" t="s">
+      <c r="A128" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="B128" s="8"/>
-      <c r="C128" s="7" t="s">
+      <c r="B128" s="18"/>
+      <c r="C128" s="17" t="s">
         <v>328</v>
       </c>
-      <c r="D128" s="8"/>
+      <c r="D128" s="18"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="7" t="s">
+      <c r="A129" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="B129" s="8"/>
-      <c r="C129" s="7" t="s">
+      <c r="B129" s="18"/>
+      <c r="C129" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="D129" s="8"/>
+      <c r="D129" s="18"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="7" t="s">
+      <c r="A130" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="B130" s="8"/>
-      <c r="C130" s="7" t="s">
+      <c r="B130" s="18"/>
+      <c r="C130" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D130" s="8"/>
+      <c r="D130" s="18"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="7" t="s">
+      <c r="A131" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="B131" s="8"/>
-      <c r="C131" s="7" t="s">
+      <c r="B131" s="18"/>
+      <c r="C131" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="D131" s="8"/>
+      <c r="D131" s="18"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="7" t="s">
+      <c r="A132" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="B132" s="8"/>
-      <c r="C132" s="7" t="s">
+      <c r="B132" s="18"/>
+      <c r="C132" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="D132" s="8"/>
+      <c r="D132" s="18"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="7" t="s">
+      <c r="A133" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="B133" s="8"/>
-      <c r="C133" s="7" t="s">
+      <c r="B133" s="18"/>
+      <c r="C133" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="D133" s="8"/>
+      <c r="D133" s="18"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="7" t="s">
+      <c r="A134" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="B134" s="8"/>
-      <c r="C134" s="7" t="s">
+      <c r="B134" s="18"/>
+      <c r="C134" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="D134" s="8"/>
+      <c r="D134" s="18"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="7" t="s">
+      <c r="A135" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="B135" s="8"/>
-      <c r="C135" s="7" t="s">
+      <c r="B135" s="18"/>
+      <c r="C135" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="D135" s="8"/>
+      <c r="D135" s="18"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="7" t="s">
+      <c r="A136" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="B136" s="8"/>
-      <c r="C136" s="7" t="s">
+      <c r="B136" s="18"/>
+      <c r="C136" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="D136" s="8"/>
+      <c r="D136" s="18"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="7" t="s">
+      <c r="A137" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="B137" s="8"/>
-      <c r="C137" s="7" t="s">
+      <c r="B137" s="18"/>
+      <c r="C137" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="D137" s="8"/>
+      <c r="D137" s="18"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="7" t="s">
+      <c r="A138" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="B138" s="8"/>
-      <c r="C138" s="7" t="s">
+      <c r="B138" s="18"/>
+      <c r="C138" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="D138" s="8"/>
+      <c r="D138" s="18"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="7" t="s">
+      <c r="A139" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="B139" s="8"/>
-      <c r="C139" s="7" t="s">
+      <c r="B139" s="18"/>
+      <c r="C139" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="D139" s="8"/>
+      <c r="D139" s="18"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="7" t="s">
+      <c r="A140" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="B140" s="8"/>
-      <c r="C140" s="7" t="s">
+      <c r="B140" s="18"/>
+      <c r="C140" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="D140" s="8"/>
+      <c r="D140" s="18"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="7" t="s">
+      <c r="A141" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="B141" s="8"/>
-      <c r="C141" s="7" t="s">
+      <c r="B141" s="18"/>
+      <c r="C141" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="D141" s="8"/>
+      <c r="D141" s="18"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="7" t="s">
+      <c r="A142" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="B142" s="8"/>
-      <c r="C142" s="7" t="s">
+      <c r="B142" s="18"/>
+      <c r="C142" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="D142" s="8"/>
+      <c r="D142" s="18"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="7" t="s">
+      <c r="A143" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="B143" s="8"/>
-      <c r="C143" s="7" t="s">
+      <c r="B143" s="18"/>
+      <c r="C143" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="D143" s="8"/>
+      <c r="D143" s="18"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="7" t="s">
+      <c r="A144" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="B144" s="8"/>
-      <c r="C144" s="7" t="s">
+      <c r="B144" s="18"/>
+      <c r="C144" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="D144" s="8"/>
+      <c r="D144" s="18"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="7" t="s">
+      <c r="A145" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="B145" s="8"/>
-      <c r="C145" s="7" t="s">
+      <c r="B145" s="18"/>
+      <c r="C145" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="D145" s="8"/>
+      <c r="D145" s="18"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="7" t="s">
+      <c r="A146" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="B146" s="8"/>
-      <c r="C146" s="7" t="s">
+      <c r="B146" s="18"/>
+      <c r="C146" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="D146" s="8"/>
+      <c r="D146" s="18"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="7" t="s">
+      <c r="A147" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="B147" s="8"/>
-      <c r="C147" s="7" t="s">
+      <c r="B147" s="18"/>
+      <c r="C147" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="D147" s="8"/>
+      <c r="D147" s="18"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="7" t="s">
+      <c r="A148" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="B148" s="8"/>
-      <c r="C148" s="7" t="s">
+      <c r="B148" s="18"/>
+      <c r="C148" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="D148" s="8"/>
+      <c r="D148" s="18"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="7" t="s">
+      <c r="A149" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="B149" s="8"/>
-      <c r="C149" s="7" t="s">
+      <c r="B149" s="18"/>
+      <c r="C149" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="D149" s="8"/>
+      <c r="D149" s="18"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="7" t="s">
+      <c r="A150" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="B150" s="8"/>
-      <c r="C150" s="7" t="s">
+      <c r="B150" s="18"/>
+      <c r="C150" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="D150" s="8"/>
+      <c r="D150" s="18"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="7" t="s">
+      <c r="A151" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="B151" s="8"/>
-      <c r="C151" s="7" t="s">
+      <c r="B151" s="18"/>
+      <c r="C151" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="D151" s="8"/>
+      <c r="D151" s="18"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="7" t="s">
+      <c r="A152" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="B152" s="8"/>
-      <c r="C152" s="7" t="s">
+      <c r="B152" s="18"/>
+      <c r="C152" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="D152" s="8"/>
+      <c r="D152" s="18"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="7" t="s">
+      <c r="A153" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="B153" s="8"/>
-      <c r="C153" s="7" t="s">
+      <c r="B153" s="18"/>
+      <c r="C153" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="D153" s="8"/>
+      <c r="D153" s="18"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="7" t="s">
+      <c r="A154" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="B154" s="8"/>
-      <c r="C154" s="7" t="s">
+      <c r="B154" s="18"/>
+      <c r="C154" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="D154" s="8"/>
+      <c r="D154" s="18"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="7" t="s">
+      <c r="A155" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="B155" s="8"/>
-      <c r="C155" s="7" t="s">
+      <c r="B155" s="18"/>
+      <c r="C155" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="D155" s="8"/>
+      <c r="D155" s="18"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="7" t="s">
+      <c r="A156" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="B156" s="8"/>
-      <c r="C156" s="7" t="s">
+      <c r="B156" s="18"/>
+      <c r="C156" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="D156" s="8"/>
+      <c r="D156" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="312">
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:D140"/>
     <mergeCell ref="A149:B149"/>
     <mergeCell ref="C149:D149"/>
     <mergeCell ref="A150:B150"/>
@@ -4544,292 +4815,18 @@
     <mergeCell ref="C145:D145"/>
     <mergeCell ref="A146:B146"/>
     <mergeCell ref="C146:D146"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="C153:D153"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4847,7 +4844,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A1" s="16">
+      <c r="A1" s="11">
         <v>95</v>
       </c>
       <c r="B1">
@@ -5068,7 +5065,7 @@
       </c>
     </row>
     <row r="2" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+      <c r="A2" s="11">
         <v>95</v>
       </c>
     </row>
